--- a/CE07SHSP/Omaha_Cal_Info_CE07SHSP_00001.xlsx
+++ b/CE07SHSP/Omaha_Cal_Info_CE07SHSP_00001.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\Ingest sheets\ingestion-csvs\CE07SHSP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="580" yWindow="240" windowWidth="25600" windowHeight="16060" tabRatio="579"/>
+    <workbookView xWindow="585" yWindow="240" windowWidth="25605" windowHeight="16065" tabRatio="579"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -20,7 +25,7 @@
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Asset_Cal_Info!$A$1:$G$51</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="102">
   <si>
     <t>Ref Des</t>
   </si>
@@ -321,37 +326,34 @@
     <t>124° 33.8592'W</t>
   </si>
   <si>
-    <t>87 m</t>
-  </si>
-  <si>
     <t>Endurance III</t>
-  </si>
-  <si>
-    <t>CE07SHSP-SP001-02-DOSTAJ000</t>
   </si>
   <si>
     <t>CE07SHSP-SP001-04-OPTAAJ000</t>
   </si>
   <si>
-    <t>CE07SHSP-SP001-05-VELPTJ000</t>
+    <t>CE07SHSP-SP001-00-SPPENG000</t>
   </si>
   <si>
-    <t>CE07SHSP-SP001-06-NUTNRJ000</t>
+    <t>CE07SHSP-SP001-01-DOSTAJ000</t>
   </si>
   <si>
-    <t>CE07SHSP-SP001-07-SPKIRJ000</t>
+    <t>CE07SHSP-SP001-02-VELPTJ000</t>
   </si>
   <si>
-    <t>CE07SHSP-SP001-08-FLORTJ000</t>
+    <t>CE07SHSP-SP001-05-NUTNRJ000</t>
   </si>
   <si>
-    <t>CE07SHSP-SP001-09-CTDPFJ000</t>
+    <t>CE07SHSP-SP001-06-SPKIRJ000</t>
   </si>
   <si>
-    <t>CE07SHSP-SP001-10-PARADJ000</t>
+    <t>CE07SHSP-SP001-07-FLORTJ000</t>
   </si>
   <si>
-    <t>CE07SHSP-SP001-00-SPPENG000</t>
+    <t>CE07SHSP-SP001-08-CTDPFJ000</t>
+  </si>
+  <si>
+    <t>CE07SHSP-SP001-09-PARADJ000</t>
   </si>
 </sst>
 </file>
@@ -359,10 +361,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="38" x14ac:knownFonts="1">
     <font>
@@ -734,14 +736,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
@@ -1259,7 +1261,7 @@
     <xf numFmtId="14" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1278,10 +1280,10 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1351,7 +1353,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="25" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="25" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="25" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="25" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1903,7 +1905,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Read Me"/>
@@ -2244,27 +2246,27 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="28">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2299,7 +2301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>88</v>
       </c>
@@ -2324,11 +2326,11 @@
       <c r="H2" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="45">
+        <v>87</v>
+      </c>
+      <c r="J2" s="45" t="s">
         <v>92</v>
-      </c>
-      <c r="J2" s="45" t="s">
-        <v>93</v>
       </c>
       <c r="L2" s="8">
         <f>((LEFT(G2,(FIND("°",G2,1)-1)))+(MID(G2,(FIND("°",G2,1)+1),(FIND("'",G2,1))-(FIND("°",G2,1)+1))/60))*(IF(RIGHT(G2,1)="N",1,-1))</f>
@@ -2339,97 +2341,93 @@
         <v>-124.56432</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
       <c r="E3" s="12"/>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" spans="1:13" s="9" customFormat="1">
+    <row r="4" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
       <c r="E4" s="12"/>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="9" customFormat="1">
+    <row r="5" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C5" s="10"/>
       <c r="D5" s="11"/>
       <c r="E5" s="12"/>
       <c r="F5" s="11"/>
-      <c r="L5" s="49">
-        <v>46.9818</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="9" customFormat="1">
+      <c r="L5" s="49"/>
+    </row>
+    <row r="6" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
       <c r="E6" s="12"/>
       <c r="F6" s="11"/>
-      <c r="L6" s="49">
-        <v>-124.56432</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="9" customFormat="1">
+      <c r="L6" s="49"/>
+    </row>
+    <row r="7" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
       <c r="E7" s="12"/>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="1:13" s="9" customFormat="1">
+    <row r="8" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="12"/>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:13" s="9" customFormat="1">
+    <row r="9" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C9" s="10"/>
       <c r="D9" s="11"/>
       <c r="E9" s="12"/>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="1:13" s="9" customFormat="1">
+    <row r="10" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C10" s="10"/>
       <c r="D10" s="11"/>
       <c r="E10" s="12"/>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:13" s="9" customFormat="1">
+    <row r="11" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C11" s="10"/>
       <c r="D11" s="11"/>
       <c r="E11" s="12"/>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" spans="1:13" s="9" customFormat="1">
+    <row r="12" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C12" s="10"/>
       <c r="D12" s="11"/>
       <c r="E12" s="12"/>
       <c r="F12" s="11"/>
     </row>
-    <row r="13" spans="1:13" s="9" customFormat="1">
+    <row r="13" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:13" s="9" customFormat="1">
+    <row r="14" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
       <c r="E14" s="12"/>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="1:13" s="9" customFormat="1">
+    <row r="15" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
       <c r="E15" s="12"/>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="1:13" s="9" customFormat="1">
+    <row r="16" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
       <c r="E16" s="12"/>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="3:6" s="9" customFormat="1">
+    <row r="17" spans="3:6" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
       <c r="E17" s="12"/>
@@ -2448,27 +2446,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="17" style="7" customWidth="1"/>
-    <col min="5" max="5" width="37.83203125" customWidth="1"/>
-    <col min="6" max="6" width="57.33203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" customWidth="1"/>
+    <col min="6" max="6" width="57.28515625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28">
+    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -2491,7 +2489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2500,9 +2498,9 @@
       <c r="F2" s="20"/>
       <c r="G2" s="21"/>
     </row>
-    <row r="3" spans="1:7" s="7" customFormat="1">
-      <c r="A3" s="22" t="s">
-        <v>94</v>
+    <row r="3" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>95</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>89</v>
@@ -2523,9 +2521,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="7" customFormat="1">
+    <row r="4" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>89</v>
@@ -2546,9 +2544,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="15">
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>89</v>
@@ -2569,9 +2567,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="7" customFormat="1">
+    <row r="6" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>89</v>
@@ -2592,7 +2590,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="7" customFormat="1">
+    <row r="7" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="27"/>
       <c r="C7" s="28"/>
@@ -2601,9 +2599,9 @@
       <c r="F7" s="25"/>
       <c r="G7" s="20"/>
     </row>
-    <row r="8" spans="1:7" s="7" customFormat="1">
+    <row r="8" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>89</v>
@@ -2624,9 +2622,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="7" customFormat="1">
+    <row r="9" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>89</v>
@@ -2645,9 +2643,9 @@
       </c>
       <c r="G9" s="31"/>
     </row>
-    <row r="10" spans="1:7" s="7" customFormat="1">
+    <row r="10" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>89</v>
@@ -2666,9 +2664,9 @@
       </c>
       <c r="G10" s="31"/>
     </row>
-    <row r="11" spans="1:7" s="7" customFormat="1">
+    <row r="11" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>89</v>
@@ -2687,9 +2685,9 @@
       </c>
       <c r="G11" s="31"/>
     </row>
-    <row r="12" spans="1:7" s="7" customFormat="1">
+    <row r="12" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>89</v>
@@ -2708,9 +2706,9 @@
       </c>
       <c r="G12" s="31"/>
     </row>
-    <row r="13" spans="1:7" s="7" customFormat="1">
+    <row r="13" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B13" s="27" t="s">
         <v>89</v>
@@ -2729,9 +2727,9 @@
       </c>
       <c r="G13" s="31"/>
     </row>
-    <row r="14" spans="1:7" s="7" customFormat="1">
+    <row r="14" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>89</v>
@@ -2750,9 +2748,9 @@
       </c>
       <c r="G14" s="31"/>
     </row>
-    <row r="15" spans="1:7" s="7" customFormat="1">
+    <row r="15" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>89</v>
@@ -2771,7 +2769,7 @@
       </c>
       <c r="G15" s="31"/>
     </row>
-    <row r="16" spans="1:7" s="7" customFormat="1">
+    <row r="16" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
       <c r="B16" s="27"/>
       <c r="C16" s="28"/>
@@ -2780,8 +2778,8 @@
       <c r="F16" s="25"/>
       <c r="G16" s="20"/>
     </row>
-    <row r="17" spans="1:7" s="7" customFormat="1">
-      <c r="A17" s="22" t="s">
+    <row r="17" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B17" s="23" t="s">
@@ -2803,7 +2801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="7" customFormat="1">
+    <row r="18" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>96</v>
       </c>
@@ -2826,7 +2824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="7" customFormat="1">
+    <row r="19" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="27"/>
       <c r="C19" s="28"/>
@@ -2835,8 +2833,8 @@
       <c r="F19" s="25"/>
       <c r="G19" s="20"/>
     </row>
-    <row r="20" spans="1:7" s="7" customFormat="1">
-      <c r="A20" s="22" t="s">
+    <row r="20" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B20" s="23" t="s">
@@ -2858,7 +2856,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="7" customFormat="1">
+    <row r="21" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>97</v>
       </c>
@@ -2881,7 +2879,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="7" customFormat="1">
+    <row r="22" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>97</v>
       </c>
@@ -2904,7 +2902,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="7" customFormat="1">
+    <row r="23" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>97</v>
       </c>
@@ -2927,7 +2925,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="7" customFormat="1">
+    <row r="24" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>97</v>
       </c>
@@ -2950,7 +2948,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="7" customFormat="1">
+    <row r="25" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
         <v>97</v>
       </c>
@@ -2973,7 +2971,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="7" customFormat="1">
+    <row r="26" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
         <v>97</v>
       </c>
@@ -2996,7 +2994,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="7" customFormat="1">
+    <row r="27" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="27"/>
       <c r="C27" s="28"/>
@@ -3005,8 +3003,8 @@
       <c r="F27" s="25"/>
       <c r="G27" s="20"/>
     </row>
-    <row r="28" spans="1:7" s="7" customFormat="1">
-      <c r="A28" s="22" t="s">
+    <row r="28" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>98</v>
       </c>
       <c r="B28" s="23" t="s">
@@ -3026,7 +3024,7 @@
       </c>
       <c r="G28" s="20"/>
     </row>
-    <row r="29" spans="1:7" s="7" customFormat="1">
+    <row r="29" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>98</v>
       </c>
@@ -3047,7 +3045,7 @@
       </c>
       <c r="G29" s="20"/>
     </row>
-    <row r="30" spans="1:7" s="7" customFormat="1">
+    <row r="30" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>98</v>
       </c>
@@ -3068,7 +3066,7 @@
       </c>
       <c r="G30" s="20"/>
     </row>
-    <row r="31" spans="1:7" s="7" customFormat="1">
+    <row r="31" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
       <c r="B31" s="27"/>
       <c r="C31" s="28"/>
@@ -3077,8 +3075,8 @@
       <c r="F31" s="25"/>
       <c r="G31" s="20"/>
     </row>
-    <row r="32" spans="1:7" s="7" customFormat="1">
-      <c r="A32" s="22" t="s">
+    <row r="32" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>99</v>
       </c>
       <c r="B32" s="23" t="s">
@@ -3100,7 +3098,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="7" customFormat="1">
+    <row r="33" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
         <v>99</v>
       </c>
@@ -3123,7 +3121,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="7" customFormat="1">
+    <row r="34" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>99</v>
       </c>
@@ -3146,7 +3144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="7" customFormat="1">
+    <row r="35" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>99</v>
       </c>
@@ -3169,7 +3167,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="7" customFormat="1">
+    <row r="36" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
         <v>99</v>
       </c>
@@ -3192,7 +3190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="7" customFormat="1">
+    <row r="37" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
         <v>99</v>
       </c>
@@ -3215,7 +3213,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="7" customFormat="1">
+    <row r="38" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
         <v>99</v>
       </c>
@@ -3238,7 +3236,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="7" customFormat="1">
+    <row r="39" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
         <v>99</v>
       </c>
@@ -3261,7 +3259,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="7" customFormat="1">
+    <row r="40" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
         <v>99</v>
       </c>
@@ -3284,7 +3282,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="7" customFormat="1">
+    <row r="41" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>99</v>
       </c>
@@ -3307,7 +3305,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="7" customFormat="1">
+    <row r="42" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="26"/>
       <c r="B42" s="27"/>
       <c r="C42" s="28"/>
@@ -3316,8 +3314,8 @@
       <c r="F42" s="25"/>
       <c r="G42" s="20"/>
     </row>
-    <row r="43" spans="1:7" s="7" customFormat="1">
-      <c r="A43" s="22" t="s">
+    <row r="43" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>100</v>
       </c>
       <c r="B43" s="23" t="s">
@@ -3339,7 +3337,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="7" customFormat="1">
+    <row r="44" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="26" t="s">
         <v>100</v>
       </c>
@@ -3362,7 +3360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="7" customFormat="1">
+    <row r="45" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
       <c r="B45" s="27"/>
       <c r="C45" s="28"/>
@@ -3371,8 +3369,8 @@
       <c r="F45" s="25"/>
       <c r="G45" s="20"/>
     </row>
-    <row r="46" spans="1:7" s="7" customFormat="1">
-      <c r="A46" s="22" t="s">
+    <row r="46" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
         <v>101</v>
       </c>
       <c r="B46" s="23" t="s">
@@ -3392,7 +3390,7 @@
       </c>
       <c r="G46" s="20"/>
     </row>
-    <row r="47" spans="1:7" s="7" customFormat="1">
+    <row r="47" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
         <v>101</v>
       </c>
@@ -3413,7 +3411,7 @@
       </c>
       <c r="G47" s="20"/>
     </row>
-    <row r="48" spans="1:7" s="7" customFormat="1">
+    <row r="48" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
         <v>101</v>
       </c>
@@ -3434,7 +3432,7 @@
       </c>
       <c r="G48" s="20"/>
     </row>
-    <row r="49" spans="1:7" s="13" customFormat="1">
+    <row r="49" spans="1:7" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A49" s="33"/>
       <c r="B49" s="33"/>
       <c r="C49" s="24"/>
@@ -3443,9 +3441,9 @@
       <c r="F49" s="34"/>
       <c r="G49" s="33"/>
     </row>
-    <row r="50" spans="1:7" s="7" customFormat="1">
+    <row r="50" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="35" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B50" s="23" t="s">
         <v>89</v>
@@ -3460,10 +3458,10 @@
       <c r="F50" s="36"/>
       <c r="G50" s="20"/>
     </row>
-    <row r="51" spans="1:7" s="7" customFormat="1"/>
-    <row r="52" spans="1:7" s="7" customFormat="1"/>
-    <row r="53" spans="1:7" s="7" customFormat="1"/>
-    <row r="54" spans="1:7" s="7" customFormat="1"/>
+    <row r="51" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3484,9 +3482,9 @@
       <selection sqref="A1:AJ85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>4.6008E-2</v>
       </c>
@@ -3596,7 +3594,7 @@
         <v>-1.137E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4.2536999999999998E-2</v>
       </c>
@@ -3706,7 +3704,7 @@
         <v>-1.358E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4.3115000000000001E-2</v>
       </c>
@@ -3816,7 +3814,7 @@
         <v>-1.5838999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4.3878E-2</v>
       </c>
@@ -3926,7 +3924,7 @@
         <v>-1.8959E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4.3221000000000002E-2</v>
       </c>
@@ -4036,7 +4034,7 @@
         <v>-2.0358000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4.1510999999999999E-2</v>
       </c>
@@ -4146,7 +4144,7 @@
         <v>-1.9682000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3.7416999999999999E-2</v>
       </c>
@@ -4256,7 +4254,7 @@
         <v>-1.8426000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3.4866000000000001E-2</v>
       </c>
@@ -4366,7 +4364,7 @@
         <v>-1.6534E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3.1199999999999999E-2</v>
       </c>
@@ -4476,7 +4474,7 @@
         <v>-1.4978999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2.7692999999999999E-2</v>
       </c>
@@ -4586,7 +4584,7 @@
         <v>-1.3599999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2.4787E-2</v>
       </c>
@@ -4696,7 +4694,7 @@
         <v>-1.2409E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2.1585E-2</v>
       </c>
@@ -4806,7 +4804,7 @@
         <v>-1.1106E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.9362999999999998E-2</v>
       </c>
@@ -4916,7 +4914,7 @@
         <v>-1.0659999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1.7412E-2</v>
       </c>
@@ -5026,7 +5024,7 @@
         <v>-1.0090999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1.5740000000000001E-2</v>
       </c>
@@ -5136,7 +5134,7 @@
         <v>-9.4520000000000003E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1.4527E-2</v>
       </c>
@@ -5246,7 +5244,7 @@
         <v>-9.214E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1.379E-2</v>
       </c>
@@ -5356,7 +5354,7 @@
         <v>-9.1629999999999993E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1.2543E-2</v>
       </c>
@@ -5466,7 +5464,7 @@
         <v>-9.1640000000000003E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1.1979999999999999E-2</v>
       </c>
@@ -5576,7 +5574,7 @@
         <v>-9.2560000000000003E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1.141E-2</v>
       </c>
@@ -5686,7 +5684,7 @@
         <v>-9.3310000000000008E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1.0869999999999999E-2</v>
       </c>
@@ -5796,7 +5794,7 @@
         <v>-9.4339999999999997E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1.0403000000000001E-2</v>
       </c>
@@ -5906,7 +5904,7 @@
         <v>-9.6699999999999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1.018E-2</v>
       </c>
@@ -6016,7 +6014,7 @@
         <v>-9.9600000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>9.5879999999999993E-3</v>
       </c>
@@ -6126,7 +6124,7 @@
         <v>-9.9190000000000007E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>9.384E-3</v>
       </c>
@@ -6236,7 +6234,7 @@
         <v>-1.0031999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9.025E-3</v>
       </c>
@@ -6346,7 +6344,7 @@
         <v>-9.8969999999999995E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8.5540000000000008E-3</v>
       </c>
@@ -6456,7 +6454,7 @@
         <v>-9.5949999999999994E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>8.3199999999999993E-3</v>
       </c>
@@ -6566,7 +6564,7 @@
         <v>-9.2449999999999997E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>7.9459999999999999E-3</v>
       </c>
@@ -6676,7 +6674,7 @@
         <v>-8.9110000000000005E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>7.5760000000000003E-3</v>
       </c>
@@ -6786,7 +6784,7 @@
         <v>-8.286E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>7.5640000000000004E-3</v>
       </c>
@@ -6896,7 +6894,7 @@
         <v>-7.8480000000000008E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7.2570000000000004E-3</v>
       </c>
@@ -7006,7 +7004,7 @@
         <v>-7.273E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>7.1209999999999997E-3</v>
       </c>
@@ -7116,7 +7114,7 @@
         <v>-6.6730000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7.1009999999999997E-3</v>
       </c>
@@ -7226,7 +7224,7 @@
         <v>-6.0819999999999997E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>6.9690000000000004E-3</v>
       </c>
@@ -7336,7 +7334,7 @@
         <v>-5.555E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>7.1580000000000003E-3</v>
       </c>
@@ -7446,7 +7444,7 @@
         <v>-5.0730000000000003E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>7.0470000000000003E-3</v>
       </c>
@@ -7556,7 +7554,7 @@
         <v>-4.6169999999999996E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>7.2830000000000004E-3</v>
       </c>
@@ -7666,7 +7664,7 @@
         <v>-4.3220000000000003E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>7.0229999999999997E-3</v>
       </c>
@@ -7776,7 +7774,7 @@
         <v>-4.0289999999999996E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>6.6090000000000003E-3</v>
       </c>
@@ -7886,7 +7884,7 @@
         <v>-3.7910000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>6.4440000000000001E-3</v>
       </c>
@@ -7996,7 +7994,7 @@
         <v>-3.5990000000000002E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5.9170000000000004E-3</v>
       </c>
@@ -8106,7 +8104,7 @@
         <v>-3.4169999999999999E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1.9090000000000001E-3</v>
       </c>
@@ -8216,7 +8214,7 @@
         <v>-4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1.421E-3</v>
       </c>
@@ -8326,7 +8324,7 @@
         <v>-1.9699999999999999E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1.3699999999999999E-3</v>
       </c>
@@ -8436,7 +8434,7 @@
         <v>6.6000000000000005E-5</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>9.7599999999999998E-4</v>
       </c>
@@ -8546,7 +8544,7 @@
         <v>3.4499999999999998E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5.5900000000000004E-4</v>
       </c>
@@ -8656,7 +8654,7 @@
         <v>6.4800000000000003E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-1.1E-5</v>
       </c>
@@ -8766,7 +8764,7 @@
         <v>1.0020000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-5.62E-4</v>
       </c>
@@ -8876,7 +8874,7 @@
         <v>1.3500000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-1.3389999999999999E-3</v>
       </c>
@@ -8986,7 +8984,7 @@
         <v>1.5380000000000001E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-2.0699999999999998E-3</v>
       </c>
@@ -9096,7 +9094,7 @@
         <v>1.722E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-2.702E-3</v>
       </c>
@@ -9206,7 +9204,7 @@
         <v>1.714E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-2.8639999999999998E-3</v>
       </c>
@@ -9316,7 +9314,7 @@
         <v>1.7279999999999999E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-2.9510000000000001E-3</v>
       </c>
@@ -9426,7 +9424,7 @@
         <v>1.5299999999999999E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-2.8219999999999999E-3</v>
       </c>
@@ -9536,7 +9534,7 @@
         <v>1.3780000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-2.7550000000000001E-3</v>
       </c>
@@ -9646,7 +9644,7 @@
         <v>1.0640000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-2.5140000000000002E-3</v>
       </c>
@@ -9756,7 +9754,7 @@
         <v>9.3599999999999998E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-2.2439999999999999E-3</v>
       </c>
@@ -9866,7 +9864,7 @@
         <v>8.25E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-2.0070000000000001E-3</v>
       </c>
@@ -9976,7 +9974,7 @@
         <v>6.9899999999999997E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-1.7780000000000001E-3</v>
       </c>
@@ -10086,7 +10084,7 @@
         <v>6.3199999999999997E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-1.655E-3</v>
       </c>
@@ -10196,7 +10194,7 @@
         <v>4.6700000000000002E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-1.6310000000000001E-3</v>
       </c>
@@ -10306,7 +10304,7 @@
         <v>3.2499999999999999E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-1.5989999999999999E-3</v>
       </c>
@@ -10416,7 +10414,7 @@
         <v>1.93E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-1.493E-3</v>
       </c>
@@ -10526,7 +10524,7 @@
         <v>6.4999999999999994E-5</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-1.273E-3</v>
       </c>
@@ -10636,7 +10634,7 @@
         <v>-7.4999999999999993E-5</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-1.0189999999999999E-3</v>
       </c>
@@ -10746,7 +10744,7 @@
         <v>-1.5899999999999999E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-7.1699999999999997E-4</v>
       </c>
@@ -10856,7 +10854,7 @@
         <v>-1.7000000000000001E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-1.8E-5</v>
       </c>
@@ -10966,7 +10964,7 @@
         <v>-3.1100000000000002E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3.28E-4</v>
       </c>
@@ -11076,7 +11074,7 @@
         <v>-5.0299999999999997E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>5.8299999999999997E-4</v>
       </c>
@@ -11186,7 +11184,7 @@
         <v>-6.7100000000000005E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>8.4999999999999995E-4</v>
       </c>
@@ -11296,7 +11294,7 @@
         <v>-9.0499999999999999E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1.165E-3</v>
       </c>
@@ -11406,7 +11404,7 @@
         <v>-1.168E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1.469E-3</v>
       </c>
@@ -11516,7 +11514,7 @@
         <v>-1.3760000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1.9949999999999998E-3</v>
       </c>
@@ -11626,7 +11624,7 @@
         <v>-1.586E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2.3739999999999998E-3</v>
       </c>
@@ -11736,7 +11734,7 @@
         <v>-1.663E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2.3760000000000001E-3</v>
       </c>
@@ -11846,7 +11844,7 @@
         <v>-1.732E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2.4130000000000002E-3</v>
       </c>
@@ -11956,7 +11954,7 @@
         <v>-1.681E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2.166E-3</v>
       </c>
@@ -12066,7 +12064,7 @@
         <v>-1.699E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1.9530000000000001E-3</v>
       </c>
@@ -12176,7 +12174,7 @@
         <v>-1.627E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1.7539999999999999E-3</v>
       </c>
@@ -12286,7 +12284,7 @@
         <v>-1.565E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:36">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1.653E-3</v>
       </c>
@@ -12396,7 +12394,7 @@
         <v>-1.4779999999999999E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:36">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1.4339999999999999E-3</v>
       </c>
@@ -12506,7 +12504,7 @@
         <v>-1.253E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:36">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1.5529999999999999E-3</v>
       </c>
@@ -12616,7 +12614,7 @@
         <v>-1.103E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:36">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1.704E-3</v>
       </c>
@@ -12726,7 +12724,7 @@
         <v>-8.92E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:36">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1.725E-3</v>
       </c>
@@ -12854,9 +12852,9 @@
       <selection activeCell="O106" sqref="O106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0.11464299999999999</v>
       </c>
@@ -12966,7 +12964,7 @@
         <v>-5.0855999999999998E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.11143699999999999</v>
       </c>
@@ -13076,7 +13074,7 @@
         <v>-4.8311E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.10566</v>
       </c>
@@ -13186,7 +13184,7 @@
         <v>-4.7612000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.103315</v>
       </c>
@@ -13296,7 +13294,7 @@
         <v>-4.4401000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.100078</v>
       </c>
@@ -13406,7 +13404,7 @@
         <v>-4.3917999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9.7517999999999994E-2</v>
       </c>
@@ -13516,7 +13514,7 @@
         <v>-4.0932999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9.4977000000000006E-2</v>
       </c>
@@ -13626,7 +13624,7 @@
         <v>-3.9729E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9.2086000000000001E-2</v>
       </c>
@@ -13736,7 +13734,7 @@
         <v>-3.8157999999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8.8232000000000005E-2</v>
       </c>
@@ -13846,7 +13844,7 @@
         <v>-3.6015999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8.4955000000000003E-2</v>
       </c>
@@ -13956,7 +13954,7 @@
         <v>-3.3876000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8.2607E-2</v>
       </c>
@@ -14066,7 +14064,7 @@
         <v>-3.2259999999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7.9913999999999999E-2</v>
       </c>
@@ -14176,7 +14174,7 @@
         <v>-3.0206E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7.8973000000000002E-2</v>
       </c>
@@ -14286,7 +14284,7 @@
         <v>-2.8332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7.6024999999999995E-2</v>
       </c>
@@ -14396,7 +14394,7 @@
         <v>-2.6426000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7.4902999999999997E-2</v>
       </c>
@@ -14506,7 +14504,7 @@
         <v>-2.4596E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7.3431999999999997E-2</v>
       </c>
@@ -14616,7 +14614,7 @@
         <v>-2.2771E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7.2954000000000005E-2</v>
       </c>
@@ -14726,7 +14724,7 @@
         <v>-2.1378000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7.2392999999999999E-2</v>
       </c>
@@ -14836,7 +14834,7 @@
         <v>-2.0163E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7.1642999999999998E-2</v>
       </c>
@@ -14946,7 +14944,7 @@
         <v>-1.9016999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>7.0186999999999999E-2</v>
       </c>
@@ -15056,7 +15054,7 @@
         <v>-1.8008E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6.9302000000000002E-2</v>
       </c>
@@ -15166,7 +15164,7 @@
         <v>-1.7052000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6.8472000000000005E-2</v>
       </c>
@@ -15276,7 +15274,7 @@
         <v>-1.6406E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6.7325999999999997E-2</v>
       </c>
@@ -15386,7 +15384,7 @@
         <v>-1.5685000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6.6239999999999993E-2</v>
       </c>
@@ -15496,7 +15494,7 @@
         <v>-1.5491E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6.5568000000000001E-2</v>
       </c>
@@ -15606,7 +15604,7 @@
         <v>-1.5266999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6.4459000000000002E-2</v>
       </c>
@@ -15716,7 +15714,7 @@
         <v>-1.5446E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>6.3698000000000005E-2</v>
       </c>
@@ -15826,7 +15824,7 @@
         <v>-1.5762000000000002E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>6.2205000000000003E-2</v>
       </c>
@@ -15936,7 +15934,7 @@
         <v>-1.5906E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6.1772000000000001E-2</v>
       </c>
@@ -16046,7 +16044,7 @@
         <v>-1.6376000000000002E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6.0983000000000002E-2</v>
       </c>
@@ -16156,7 +16154,7 @@
         <v>-1.6698000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5.9484000000000002E-2</v>
       </c>
@@ -16266,7 +16264,7 @@
         <v>-1.7065E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5.885E-2</v>
       </c>
@@ -16376,7 +16374,7 @@
         <v>-1.7538000000000002E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5.8035000000000003E-2</v>
       </c>
@@ -16486,7 +16484,7 @@
         <v>-1.7956E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5.6728000000000001E-2</v>
       </c>
@@ -16596,7 +16594,7 @@
         <v>-1.8258E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5.6006E-2</v>
       </c>
@@ -16706,7 +16704,7 @@
         <v>-1.8557000000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5.4544000000000002E-2</v>
       </c>
@@ -16816,7 +16814,7 @@
         <v>-1.8412999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5.3428000000000003E-2</v>
       </c>
@@ -16926,7 +16924,7 @@
         <v>-1.8096000000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5.2255000000000003E-2</v>
       </c>
@@ -17036,7 +17034,7 @@
         <v>-1.7731E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5.1347999999999998E-2</v>
       </c>
@@ -17146,7 +17144,7 @@
         <v>-1.7405E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5.0941E-2</v>
       </c>
@@ -17256,7 +17254,7 @@
         <v>-1.6965000000000001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5.0456000000000001E-2</v>
       </c>
@@ -17366,7 +17364,7 @@
         <v>-1.6688000000000001E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4.9521000000000003E-2</v>
       </c>
@@ -17476,7 +17474,7 @@
         <v>-1.6479000000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5.2349E-2</v>
       </c>
@@ -17586,7 +17584,7 @@
         <v>-1.9583E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5.2712000000000002E-2</v>
       </c>
@@ -17696,7 +17694,7 @@
         <v>-1.9982E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5.2965999999999999E-2</v>
       </c>
@@ -17806,7 +17804,7 @@
         <v>-2.0264000000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5.373E-2</v>
       </c>
@@ -17916,7 +17914,7 @@
         <v>-2.0386000000000001E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5.4421999999999998E-2</v>
       </c>
@@ -18026,7 +18024,7 @@
         <v>-2.0745E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5.5028000000000001E-2</v>
       </c>
@@ -18136,7 +18134,7 @@
         <v>-2.0560999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5.5216000000000001E-2</v>
       </c>
@@ -18246,7 +18244,7 @@
         <v>-2.0379999999999999E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5.5146000000000001E-2</v>
       </c>
@@ -18356,7 +18354,7 @@
         <v>-1.9935000000000001E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5.4336000000000002E-2</v>
       </c>
@@ -18466,7 +18464,7 @@
         <v>-1.9289000000000001E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5.3359999999999998E-2</v>
       </c>
@@ -18576,7 +18574,7 @@
         <v>-1.8554999999999999E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5.2211E-2</v>
       </c>
@@ -18686,7 +18684,7 @@
         <v>-1.8151E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5.0758999999999999E-2</v>
       </c>
@@ -18796,7 +18794,7 @@
         <v>-1.7795999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>4.9699E-2</v>
       </c>
@@ -18906,7 +18904,7 @@
         <v>-1.7281000000000001E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4.9028000000000002E-2</v>
       </c>
@@ -19016,7 +19014,7 @@
         <v>-1.6966999999999999E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4.8057000000000002E-2</v>
       </c>
@@ -19126,7 +19124,7 @@
         <v>-1.6674999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>4.7393999999999999E-2</v>
       </c>
@@ -19236,7 +19234,7 @@
         <v>-1.6372000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>4.6948999999999998E-2</v>
       </c>
@@ -19346,7 +19344,7 @@
         <v>-1.6211E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>4.6358000000000003E-2</v>
       </c>
@@ -19456,7 +19454,7 @@
         <v>-1.5982E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4.6005999999999998E-2</v>
       </c>
@@ -19566,7 +19564,7 @@
         <v>-1.5730999999999998E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>4.5657000000000003E-2</v>
       </c>
@@ -19676,7 +19674,7 @@
         <v>-1.5650000000000001E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>4.4887999999999997E-2</v>
       </c>
@@ -19786,7 +19784,7 @@
         <v>-1.5442000000000001E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>4.4344000000000001E-2</v>
       </c>
@@ -19896,7 +19894,7 @@
         <v>-1.5474999999999999E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>4.3698000000000001E-2</v>
       </c>
@@ -20006,7 +20004,7 @@
         <v>-1.5446E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>4.2992000000000002E-2</v>
       </c>
@@ -20116,7 +20114,7 @@
         <v>-1.5382E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>4.2221000000000002E-2</v>
       </c>
@@ -20226,7 +20224,7 @@
         <v>-1.5272000000000001E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>4.2258999999999998E-2</v>
       </c>
@@ -20336,7 +20334,7 @@
         <v>-1.5022000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>4.1813000000000003E-2</v>
       </c>
@@ -20446,7 +20444,7 @@
         <v>-1.4598E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>4.1190999999999998E-2</v>
       </c>
@@ -20556,7 +20554,7 @@
         <v>-1.439E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>4.1315999999999999E-2</v>
       </c>
@@ -20666,7 +20664,7 @@
         <v>-1.4239E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>4.0593999999999998E-2</v>
       </c>
@@ -20776,7 +20774,7 @@
         <v>-1.4161E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>4.0902000000000001E-2</v>
       </c>
@@ -20886,7 +20884,7 @@
         <v>-1.4272999999999999E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>4.0507000000000001E-2</v>
       </c>
@@ -20996,7 +20994,7 @@
         <v>-1.4279999999999999E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>4.1043999999999997E-2</v>
       </c>
@@ -21106,7 +21104,7 @@
         <v>-1.4352999999999999E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>4.0555000000000001E-2</v>
       </c>
@@ -21216,7 +21214,7 @@
         <v>-1.4429000000000001E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>4.1255E-2</v>
       </c>
@@ -21326,7 +21324,7 @@
         <v>-1.4637000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>4.0912999999999998E-2</v>
       </c>
@@ -21436,7 +21434,7 @@
         <v>-1.4713E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>4.1392999999999999E-2</v>
       </c>
@@ -21546,7 +21544,7 @@
         <v>-1.5044E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>4.0951000000000001E-2</v>
       </c>
@@ -21656,7 +21654,7 @@
         <v>-1.5200999999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:36">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4.0934999999999999E-2</v>
       </c>
@@ -21766,7 +21764,7 @@
         <v>-1.54E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:36">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>4.0092999999999997E-2</v>
       </c>
@@ -21876,7 +21874,7 @@
         <v>-1.5492000000000001E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:36">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>3.9625E-2</v>
       </c>
@@ -21986,7 +21984,7 @@
         <v>-1.5389E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:36">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>3.8066000000000003E-2</v>
       </c>
@@ -22096,7 +22094,7 @@
         <v>-1.4987E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:36">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>3.8646E-2</v>
       </c>
